--- a/data/Extractions_20230215.xlsx
+++ b/data/Extractions_20230215.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3437171_ad_unsw_edu_au/Documents/Working/Sabbatical/2_kim/Modalities of Predation Risk Meta-Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z3437171/Dropbox/Github Local/multimodality/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3D9F1DB5-CC62-44EF-9B40-8E435DA0A6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A62CF37-A781-134E-A635-8D30A92AF590}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB367ED-BED4-A346-B38F-54DD113BBFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="31080" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41420" yWindow="2320" windowWidth="26920" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extractions" sheetId="1" r:id="rId1"/>
@@ -4197,7 +4197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4360,6 +4360,12 @@
         <bgColor rgb="FFF6B26B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4398,7 +4404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
@@ -4535,6 +4541,10 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4551,10 +4561,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4822,9 +4828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W665" sqref="A665:XFD665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4842,7 +4848,7 @@
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
@@ -4850,8 +4856,8 @@
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" customWidth="1"/>
     <col min="24" max="24" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.1640625" customWidth="1"/>
@@ -7131,110 +7137,110 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" spans="1:48" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="70">
         <v>898</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="70" t="s">
         <v>703</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="70">
         <v>2017</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="70" t="s">
         <v>1151</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="70" t="s">
         <v>754</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="70" t="s">
         <v>1184</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="70">
         <v>80</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="70">
         <v>80</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="70">
         <v>24</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="70">
         <v>56</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="70">
         <v>8</v>
       </c>
-      <c r="Z22" s="4" t="s">
+      <c r="Z22" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AA22" s="70" t="s">
         <v>1335</v>
       </c>
-      <c r="AB22" s="48" t="s">
+      <c r="AB22" s="71" t="s">
         <v>1335</v>
       </c>
-      <c r="AC22" s="3" t="s">
+      <c r="AC22" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="70">
         <v>1</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AE22" s="70">
         <v>9.6382999999999992</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AF22" s="70">
         <v>-2196.0961000000002</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AG22" s="70">
         <v>2215.3728000000001</v>
       </c>
-      <c r="AH22" s="3">
+      <c r="AH22" s="70">
         <v>1266514.828</v>
       </c>
-      <c r="AI22" s="3" t="s">
+      <c r="AI22" s="70" t="s">
         <v>111</v>
       </c>
     </row>
@@ -11298,104 +11304,104 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:48" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+    <row r="61" spans="1:48" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="70">
         <v>214</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="70" t="s">
         <v>703</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="70">
         <v>2016</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="J61" s="70" t="s">
         <v>848</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="L61" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M61" s="4" t="s">
+      <c r="L61" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="M61" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="N61" s="4" t="s">
+      <c r="N61" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="O61" s="4" t="s">
+      <c r="O61" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="P61" s="4" t="s">
+      <c r="P61" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="Q61" s="4" t="s">
+      <c r="Q61" s="70" t="s">
         <v>754</v>
       </c>
-      <c r="R61" s="4" t="s">
+      <c r="R61" s="70" t="s">
         <v>1184</v>
       </c>
-      <c r="S61" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T61" s="4">
+      <c r="S61" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="T61" s="70">
         <v>4</v>
       </c>
-      <c r="U61" s="4">
+      <c r="U61" s="70">
         <v>4</v>
       </c>
-      <c r="V61" s="4">
+      <c r="V61" s="70">
         <v>2</v>
       </c>
-      <c r="W61" s="4">
+      <c r="W61" s="70">
         <v>2</v>
       </c>
-      <c r="X61" s="4" t="s">
+      <c r="X61" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="Y61" s="4">
+      <c r="Y61" s="70">
         <v>19</v>
       </c>
-      <c r="Z61" s="3" t="s">
+      <c r="Z61" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="AA61" s="6" t="s">
+      <c r="AA61" s="70" t="s">
         <v>1347</v>
       </c>
-      <c r="AB61" s="49" t="s">
+      <c r="AB61" s="71" t="s">
         <v>659</v>
       </c>
-      <c r="AC61" s="4" t="s">
+      <c r="AC61" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="AD61" s="4">
+      <c r="AD61" s="70">
         <v>1</v>
       </c>
-      <c r="AE61" s="4">
+      <c r="AE61" s="70">
         <v>0</v>
       </c>
-      <c r="AF61" s="4">
+      <c r="AF61" s="70">
         <v>-10.860300000000001</v>
       </c>
-      <c r="AG61" s="4">
+      <c r="AG61" s="70">
         <v>10.860300000000001</v>
       </c>
-      <c r="AH61" s="4">
+      <c r="AH61" s="70">
         <v>30.703389000000001</v>
       </c>
-      <c r="AI61" s="4" t="s">
+      <c r="AI61" s="70" t="s">
         <v>166</v>
       </c>
     </row>
@@ -12914,104 +12920,104 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+    <row r="77" spans="1:35" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="70">
         <v>214</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="70" t="s">
         <v>703</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="70">
         <v>2016</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="J77" s="70" t="s">
         <v>848</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="K77" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="L77" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M77" s="4" t="s">
+      <c r="L77" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="M77" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="N77" s="4" t="s">
+      <c r="N77" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="O77" s="4" t="s">
+      <c r="O77" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="P77" s="4" t="s">
+      <c r="P77" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="Q77" s="4" t="s">
+      <c r="Q77" s="70" t="s">
         <v>754</v>
       </c>
-      <c r="R77" s="4" t="s">
+      <c r="R77" s="70" t="s">
         <v>1184</v>
       </c>
-      <c r="S77" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T77" s="4">
+      <c r="S77" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="T77" s="70">
         <v>3</v>
       </c>
-      <c r="U77" s="4">
+      <c r="U77" s="70">
         <v>3</v>
       </c>
-      <c r="V77" s="4">
+      <c r="V77" s="70">
         <v>1</v>
       </c>
-      <c r="W77" s="4">
+      <c r="W77" s="70">
         <v>2</v>
       </c>
-      <c r="X77" s="4" t="s">
+      <c r="X77" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="Y77" s="4">
+      <c r="Y77" s="70">
         <v>22</v>
       </c>
-      <c r="Z77" s="3" t="s">
+      <c r="Z77" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="AA77" s="3" t="s">
+      <c r="AA77" s="70" t="s">
         <v>1346</v>
       </c>
-      <c r="AB77" s="4" t="s">
+      <c r="AB77" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="AC77" s="4" t="s">
+      <c r="AC77" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="AD77" s="4">
+      <c r="AD77" s="70">
         <v>1</v>
       </c>
-      <c r="AE77" s="4">
+      <c r="AE77" s="70">
         <v>-40</v>
       </c>
-      <c r="AF77" s="4">
+      <c r="AF77" s="70">
         <v>-72.096000000000004</v>
       </c>
-      <c r="AG77" s="4">
+      <c r="AG77" s="70">
         <v>-7.9039999999999999</v>
       </c>
-      <c r="AH77" s="4">
+      <c r="AH77" s="70">
         <v>268.16666700000002</v>
       </c>
-      <c r="AI77" s="4" t="s">
+      <c r="AI77" s="70" t="s">
         <v>166</v>
       </c>
     </row>
@@ -77993,7 +77999,7 @@
         <v>44</v>
       </c>
       <c r="L639" s="11" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="M639" s="11" t="s">
         <v>46</v>
@@ -78117,7 +78123,7 @@
         <v>44</v>
       </c>
       <c r="L640" s="11" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="M640" s="11" t="s">
         <v>46</v>
@@ -78241,7 +78247,7 @@
         <v>44</v>
       </c>
       <c r="L641" s="11" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="M641" s="11" t="s">
         <v>46</v>
@@ -78365,7 +78371,7 @@
         <v>44</v>
       </c>
       <c r="L642" s="11" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="M642" s="11" t="s">
         <v>46</v>
@@ -81025,125 +81031,112 @@
       <c r="AU664" s="11"/>
       <c r="AV664" s="11"/>
     </row>
-    <row r="665" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A665" s="11">
+    <row r="665" spans="1:48" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A665" s="70">
         <v>439</v>
       </c>
-      <c r="B665" s="11" t="s">
+      <c r="B665" s="70" t="s">
         <v>703</v>
       </c>
-      <c r="C665" s="11" t="s">
+      <c r="C665" s="70" t="s">
         <v>1093</v>
       </c>
-      <c r="D665" s="11">
+      <c r="D665" s="70">
         <v>2015</v>
       </c>
-      <c r="E665" s="11" t="s">
+      <c r="E665" s="70" t="s">
         <v>1094</v>
       </c>
-      <c r="F665" s="11" t="s">
+      <c r="F665" s="70" t="s">
         <v>1095</v>
       </c>
-      <c r="G665" s="11" t="s">
+      <c r="G665" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="H665" s="11" t="s">
+      <c r="H665" s="70" t="s">
         <v>1096</v>
       </c>
-      <c r="I665" s="11" t="s">
+      <c r="I665" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="J665" s="11" t="s">
+      <c r="J665" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="K665" s="11" t="s">
+      <c r="K665" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="L665" s="11" t="s">
+      <c r="L665" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="M665" s="11" t="s">
+      <c r="M665" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="N665" s="11" t="s">
+      <c r="N665" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="O665" s="11" t="s">
+      <c r="O665" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="P665" s="11" t="s">
+      <c r="P665" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="Q665" s="11" t="s">
+      <c r="Q665" s="70" t="s">
         <v>1193</v>
       </c>
-      <c r="R665" s="11" t="s">
+      <c r="R665" s="70" t="s">
         <v>1184</v>
       </c>
-      <c r="S665" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="T665" s="11">
+      <c r="S665" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="T665" s="70">
         <v>46</v>
       </c>
-      <c r="U665" s="11">
+      <c r="U665" s="70">
         <v>46</v>
       </c>
-      <c r="V665" s="11">
+      <c r="V665" s="70">
         <v>34</v>
       </c>
-      <c r="W665" s="11">
+      <c r="W665" s="70">
         <v>12</v>
       </c>
-      <c r="X665" s="11">
+      <c r="X665" s="70">
         <v>126</v>
       </c>
-      <c r="Y665" s="11">
+      <c r="Y665" s="70">
         <v>289</v>
       </c>
-      <c r="Z665" s="3" t="s">
+      <c r="Z665" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="AA665" s="3" t="s">
+      <c r="AA665" s="70" t="s">
         <v>1350</v>
       </c>
-      <c r="AB665" s="11" t="s">
+      <c r="AB665" s="70" t="s">
         <v>1256</v>
       </c>
-      <c r="AC665" s="11" t="s">
+      <c r="AC665" s="70" t="s">
         <v>1097</v>
       </c>
-      <c r="AD665" s="11">
+      <c r="AD665" s="70">
         <v>1</v>
       </c>
-      <c r="AE665" s="11">
+      <c r="AE665" s="70">
         <v>-3.2507000000000001</v>
       </c>
-      <c r="AF665" s="11">
+      <c r="AF665" s="70">
         <v>-34.535400000000003</v>
       </c>
-      <c r="AG665" s="11">
+      <c r="AG665" s="70">
         <v>27.884</v>
       </c>
-      <c r="AH665" s="11">
+      <c r="AH665" s="70">
         <v>253.56110699999999</v>
       </c>
-      <c r="AI665" s="11" t="s">
+      <c r="AI665" s="70" t="s">
         <v>1098</v>
       </c>
-      <c r="AJ665" s="11"/>
-      <c r="AK665" s="11"/>
-      <c r="AL665" s="11"/>
-      <c r="AM665" s="11"/>
-      <c r="AN665" s="11"/>
-      <c r="AO665" s="11"/>
-      <c r="AP665" s="11"/>
-      <c r="AQ665" s="11"/>
-      <c r="AR665" s="11"/>
-      <c r="AS665" s="11"/>
-      <c r="AT665" s="11"/>
-      <c r="AU665" s="11"/>
-      <c r="AV665" s="11"/>
     </row>
     <row r="666" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A666" s="3">
@@ -85293,8 +85286,8 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -86040,7 +86033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3788017C-4DE5-42B5-851A-CBEB2ADBE90A}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
